--- a/Player Database/ThierryHenry.xlsx
+++ b/Player Database/ThierryHenry.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="94">
   <si>
     <t xml:space="preserve">TEAM</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t xml:space="preserve">L 4-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substitute</t>
   </si>
   <si>
     <t xml:space="preserve">W 2-6</t>
@@ -523,8 +520,8 @@
   </sheetPr>
   <dimension ref="A1:I671"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A321" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E341" activeCellId="0" sqref="E341:E342 E359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10294,8 +10291,8 @@
       <c r="D341" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E341" s="2" t="s">
-        <v>76</v>
+      <c r="E341" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F341" s="2" t="n">
         <v>0</v>
@@ -10323,8 +10320,8 @@
       <c r="D342" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E342" s="2" t="s">
-        <v>76</v>
+      <c r="E342" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F342" s="2" t="n">
         <v>0</v>
@@ -10808,8 +10805,8 @@
       <c r="D359" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E359" s="2" t="s">
-        <v>76</v>
+      <c r="E359" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F359" s="2" t="n">
         <v>0</v>
@@ -10864,7 +10861,7 @@
         <v>71</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E361" s="2" t="n">
         <v>60</v>
@@ -11010,7 +11007,7 @@
         <v>36</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E366" s="2" t="n">
         <v>0</v>
@@ -11276,7 +11273,7 @@
         <v>71</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E376" s="2" t="n">
         <v>90</v>
@@ -11754,7 +11751,7 @@
         <v>36</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E393" s="2" t="n">
         <v>45</v>
@@ -11988,7 +11985,7 @@
         <v>36</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E401" s="2" t="n">
         <f aca="false">90- 56</f>
@@ -12641,7 +12638,7 @@
         <v>63</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E424" s="2" t="n">
         <v>90</v>
@@ -13430,7 +13427,7 @@
         <v>74</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E454" s="2" t="n">
         <v>90</v>
@@ -13459,7 +13456,7 @@
         <v>71</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E455" s="2" t="n">
         <v>90</v>
@@ -13535,7 +13532,7 @@
         <v>40166</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D458" s="4" t="s">
         <v>30</v>
@@ -13763,7 +13760,7 @@
         <v>69</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E466" s="2" t="n">
         <v>90</v>
@@ -14193,7 +14190,7 @@
         <v>40053</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D482" s="4" t="s">
         <v>12</v>
@@ -14869,7 +14866,7 @@
         <v>74</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E508" s="2" t="n">
         <v>90</v>
@@ -14898,7 +14895,7 @@
         <v>71</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E509" s="2" t="n">
         <v>90</v>
@@ -14974,7 +14971,7 @@
         <v>40166</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D512" s="4" t="s">
         <v>30</v>
@@ -15202,7 +15199,7 @@
         <v>69</v>
       </c>
       <c r="D520" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E520" s="2" t="n">
         <v>90</v>
@@ -15632,7 +15629,7 @@
         <v>40053</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D536" s="4" t="s">
         <v>12</v>
@@ -15693,7 +15690,7 @@
         <v>36</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E538" s="2" t="n">
         <f aca="false">90- 45</f>
@@ -15753,7 +15750,7 @@
         <v>16</v>
       </c>
       <c r="D540" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E540" s="2" t="n">
         <f aca="false">90- 67</f>
@@ -15894,13 +15891,13 @@
     </row>
     <row r="545" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B545" s="3" t="n">
         <v>40850</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D545" s="4" t="s">
         <v>47</v>
@@ -15923,13 +15920,13 @@
     </row>
     <row r="546" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B546" s="3" t="n">
         <v>40846</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D546" s="4" t="s">
         <v>51</v>
@@ -15952,13 +15949,13 @@
     </row>
     <row r="547" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B547" s="3" t="n">
         <v>40842</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D547" s="4" t="s">
         <v>20</v>
@@ -15981,13 +15978,13 @@
     </row>
     <row r="548" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B548" s="3" t="n">
         <v>40831</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D548" s="4" t="s">
         <v>43</v>
@@ -16010,13 +16007,13 @@
     </row>
     <row r="549" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B549" s="3" t="n">
         <v>40820</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D549" s="4" t="s">
         <v>19</v>
@@ -16039,13 +16036,13 @@
     </row>
     <row r="550" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B550" s="3" t="n">
         <v>40817</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D550" s="4" t="s">
         <v>26</v>
@@ -16068,13 +16065,13 @@
     </row>
     <row r="551" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B551" s="3" t="n">
         <v>40810</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D551" s="4" t="s">
         <v>19</v>
@@ -16097,13 +16094,13 @@
     </row>
     <row r="552" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B552" s="3" t="n">
         <v>40807</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D552" s="4" t="s">
         <v>31</v>
@@ -16126,13 +16123,13 @@
     </row>
     <row r="553" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B553" s="3" t="n">
         <v>40796</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D553" s="4" t="s">
         <v>26</v>
@@ -16155,13 +16152,13 @@
     </row>
     <row r="554" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B554" s="3" t="n">
         <v>40768</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D554" s="4" t="s">
         <v>42</v>
@@ -16184,16 +16181,16 @@
     </row>
     <row r="555" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B555" s="3" t="n">
         <v>40761</v>
       </c>
       <c r="C555" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D555" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D555" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="E555" s="2" t="n">
         <v>90</v>
@@ -16213,16 +16210,16 @@
     </row>
     <row r="556" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B556" s="3" t="n">
         <v>40751</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D556" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E556" s="2" t="n">
         <v>45</v>
@@ -16242,13 +16239,13 @@
     </row>
     <row r="557" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B557" s="3" t="n">
         <v>40747</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D557" s="4" t="s">
         <v>42</v>
@@ -16271,13 +16268,13 @@
     </row>
     <row r="558" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B558" s="3" t="n">
         <v>40744</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D558" s="4" t="s">
         <v>73</v>
@@ -16300,13 +16297,13 @@
     </row>
     <row r="559" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B559" s="3" t="n">
         <v>40740</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D559" s="4" t="s">
         <v>50</v>
@@ -16329,13 +16326,13 @@
     </row>
     <row r="560" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B560" s="3" t="n">
         <v>40733</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D560" s="4" t="s">
         <v>51</v>
@@ -16358,13 +16355,13 @@
     </row>
     <row r="561" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B561" s="3" t="n">
         <v>40730</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D561" s="4" t="s">
         <v>52</v>
@@ -16387,13 +16384,13 @@
     </row>
     <row r="562" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B562" s="3" t="n">
         <v>40720</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D562" s="4" t="s">
         <v>26</v>
@@ -16416,13 +16413,13 @@
     </row>
     <row r="563" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B563" s="3" t="n">
         <v>40713</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D563" s="4" t="s">
         <v>35</v>
@@ -16445,13 +16442,13 @@
     </row>
     <row r="564" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B564" s="3" t="n">
         <v>40704</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D564" s="4" t="s">
         <v>22</v>
@@ -16474,13 +16471,13 @@
     </row>
     <row r="565" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B565" s="3" t="n">
         <v>40698</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D565" s="4" t="s">
         <v>26</v>
@@ -16503,13 +16500,13 @@
     </row>
     <row r="566" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B566" s="3" t="n">
         <v>40688</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D566" s="4" t="s">
         <v>42</v>
@@ -16532,13 +16529,13 @@
     </row>
     <row r="567" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B567" s="3" t="n">
         <v>40678</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D567" s="4" t="s">
         <v>41</v>
@@ -16561,13 +16558,13 @@
     </row>
     <row r="568" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B568" s="3" t="n">
         <v>40670</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D568" s="4" t="s">
         <v>26</v>
@@ -16590,13 +16587,13 @@
     </row>
     <row r="569" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B569" s="3" t="n">
         <v>40663</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D569" s="4" t="s">
         <v>12</v>
@@ -16619,13 +16616,13 @@
     </row>
     <row r="570" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B570" s="3" t="n">
         <v>40654</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D570" s="4" t="s">
         <v>39</v>
@@ -16648,13 +16645,13 @@
     </row>
     <row r="571" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B571" s="3" t="n">
         <v>40649</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D571" s="4" t="s">
         <v>14</v>
@@ -16677,13 +16674,13 @@
     </row>
     <row r="572" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B572" s="3" t="n">
         <v>40642</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D572" s="4" t="s">
         <v>37</v>
@@ -16706,13 +16703,13 @@
     </row>
     <row r="573" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B573" s="3" t="n">
         <v>40635</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D573" s="4" t="s">
         <v>26</v>
@@ -16735,13 +16732,13 @@
     </row>
     <row r="574" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B574" s="3" t="n">
         <v>40621</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D574" s="4" t="s">
         <v>12</v>
@@ -16764,13 +16761,13 @@
     </row>
     <row r="575" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B575" s="3" t="n">
         <v>41221</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D575" s="4" t="s">
         <v>51</v>
@@ -16793,13 +16790,13 @@
     </row>
     <row r="576" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B576" s="3" t="n">
         <v>41216</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D576" s="4" t="s">
         <v>26</v>
@@ -16822,13 +16819,13 @@
     </row>
     <row r="577" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B577" s="3" t="n">
         <v>41209</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D577" s="4" t="s">
         <v>23</v>
@@ -16851,13 +16848,13 @@
     </row>
     <row r="578" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B578" s="3" t="n">
         <v>41202</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D578" s="4" t="s">
         <v>50</v>
@@ -16880,13 +16877,13 @@
     </row>
     <row r="579" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B579" s="3" t="n">
         <v>41188</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D579" s="4" t="s">
         <v>56</v>
@@ -16909,13 +16906,13 @@
     </row>
     <row r="580" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B580" s="3" t="n">
         <v>41181</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D580" s="4" t="s">
         <v>24</v>
@@ -16938,13 +16935,13 @@
     </row>
     <row r="581" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B581" s="3" t="n">
         <v>41171</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D581" s="4" t="s">
         <v>56</v>
@@ -16967,13 +16964,13 @@
     </row>
     <row r="582" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B582" s="3" t="n">
         <v>41167</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D582" s="4" t="s">
         <v>33</v>
@@ -16996,13 +16993,13 @@
     </row>
     <row r="583" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B583" s="3" t="n">
         <v>41150</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D583" s="4" t="s">
         <v>42</v>
@@ -17025,13 +17022,13 @@
     </row>
     <row r="584" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B584" s="3" t="n">
         <v>41140</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D584" s="4" t="s">
         <v>32</v>
@@ -17054,13 +17051,13 @@
     </row>
     <row r="585" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B585" s="3" t="n">
         <v>41131</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D585" s="4" t="s">
         <v>19</v>
@@ -17083,13 +17080,13 @@
     </row>
     <row r="586" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B586" s="3" t="n">
         <v>41124</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D586" s="4" t="s">
         <v>43</v>
@@ -17112,13 +17109,13 @@
     </row>
     <row r="587" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B587" s="3" t="n">
         <v>41118</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D587" s="4" t="s">
         <v>58</v>
@@ -17141,13 +17138,13 @@
     </row>
     <row r="588" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B588" s="3" t="n">
         <v>41115</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D588" s="4" t="s">
         <v>32</v>
@@ -17170,13 +17167,13 @@
     </row>
     <row r="589" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B589" s="3" t="n">
         <v>41111</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D589" s="4" t="s">
         <v>19</v>
@@ -17199,13 +17196,13 @@
     </row>
     <row r="590" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B590" s="3" t="n">
         <v>41108</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D590" s="4" t="s">
         <v>12</v>
@@ -17228,13 +17225,13 @@
     </row>
     <row r="591" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B591" s="3" t="n">
         <v>41105</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D591" s="4" t="s">
         <v>42</v>
@@ -17257,13 +17254,13 @@
     </row>
     <row r="592" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B592" s="3" t="n">
         <v>41090</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D592" s="4" t="s">
         <v>26</v>
@@ -17286,13 +17283,13 @@
     </row>
     <row r="593" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B593" s="3" t="n">
         <v>41084</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D593" s="4" t="s">
         <v>32</v>
@@ -17316,13 +17313,13 @@
     </row>
     <row r="594" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B594" s="3" t="n">
         <v>41052</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D594" s="4" t="s">
         <v>26</v>
@@ -17345,13 +17342,13 @@
     </row>
     <row r="595" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B595" s="3" t="n">
         <v>41027</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D595" s="4" t="s">
         <v>12</v>
@@ -17374,13 +17371,13 @@
     </row>
     <row r="596" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B596" s="3" t="n">
         <v>41021</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D596" s="4" t="s">
         <v>73</v>
@@ -17403,13 +17400,13 @@
     </row>
     <row r="597" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B597" s="3" t="n">
         <v>41013</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D597" s="4" t="s">
         <v>42</v>
@@ -17432,13 +17429,13 @@
     </row>
     <row r="598" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B598" s="3" t="n">
         <v>41006</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D598" s="4" t="s">
         <v>48</v>
@@ -17461,13 +17458,13 @@
     </row>
     <row r="599" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B599" s="3" t="n">
         <v>40999</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D599" s="4" t="s">
         <v>25</v>
@@ -17490,13 +17487,13 @@
     </row>
     <row r="600" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B600" s="3" t="n">
         <v>40993</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D600" s="4" t="s">
         <v>24</v>
@@ -17519,13 +17516,13 @@
     </row>
     <row r="601" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B601" s="3" t="n">
         <v>40985</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D601" s="4" t="s">
         <v>43</v>
@@ -17548,13 +17545,13 @@
     </row>
     <row r="602" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B602" s="3" t="n">
         <v>40979</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D602" s="4" t="s">
         <v>47</v>
@@ -17577,13 +17574,13 @@
     </row>
     <row r="603" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B603" s="3" t="n">
         <v>41584</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D603" s="4" t="s">
         <v>38</v>
@@ -17606,13 +17603,13 @@
     </row>
     <row r="604" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B604" s="3" t="n">
         <v>41581</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D604" s="4" t="s">
         <v>42</v>
@@ -17635,13 +17632,13 @@
     </row>
     <row r="605" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B605" s="3" t="n">
         <v>41574</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D605" s="4" t="s">
         <v>25</v>
@@ -17664,13 +17661,13 @@
     </row>
     <row r="606" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B606" s="3" t="n">
         <v>41567</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D606" s="4" t="s">
         <v>23</v>
@@ -17693,13 +17690,13 @@
     </row>
     <row r="607" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B607" s="3" t="n">
         <v>41552</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D607" s="4" t="s">
         <v>42</v>
@@ -17722,13 +17719,13 @@
     </row>
     <row r="608" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B608" s="3" t="n">
         <v>41539</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D608" s="4" t="s">
         <v>12</v>
@@ -17751,13 +17748,13 @@
     </row>
     <row r="609" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B609" s="3" t="n">
         <v>41531</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D609" s="4" t="s">
         <v>19</v>
@@ -17780,13 +17777,13 @@
     </row>
     <row r="610" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B610" s="3" t="n">
         <v>41525</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D610" s="4" t="s">
         <v>48</v>
@@ -17809,13 +17806,13 @@
     </row>
     <row r="611" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B611" s="3" t="n">
         <v>41517</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D611" s="4" t="s">
         <v>22</v>
@@ -17839,13 +17836,13 @@
     </row>
     <row r="612" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B612" s="3" t="n">
         <v>41511</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D612" s="4" t="s">
         <v>45</v>
@@ -17868,13 +17865,13 @@
     </row>
     <row r="613" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B613" s="3" t="n">
         <v>41503</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D613" s="4" t="s">
         <v>50</v>
@@ -17897,13 +17894,13 @@
     </row>
     <row r="614" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B614" s="3" t="n">
         <v>41489</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D614" s="4" t="s">
         <v>27</v>
@@ -17926,13 +17923,13 @@
     </row>
     <row r="615" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B615" s="3" t="n">
         <v>41486</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D615" s="4" t="s">
         <v>31</v>
@@ -17955,13 +17952,13 @@
     </row>
     <row r="616" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B616" s="3" t="n">
         <v>41482</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D616" s="4" t="s">
         <v>17</v>
@@ -17984,13 +17981,13 @@
     </row>
     <row r="617" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B617" s="3" t="n">
         <v>41475</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D617" s="4" t="s">
         <v>50</v>
@@ -18013,13 +18010,13 @@
     </row>
     <row r="618" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B618" s="3" t="n">
         <v>41468</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D618" s="4" t="s">
         <v>13</v>
@@ -18042,13 +18039,13 @@
     </row>
     <row r="619" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B619" s="3" t="n">
         <v>41459</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D619" s="4" t="s">
         <v>43</v>
@@ -18071,13 +18068,13 @@
     </row>
     <row r="620" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B620" s="3" t="n">
         <v>41455</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D620" s="4" t="s">
         <v>19</v>
@@ -18100,16 +18097,16 @@
     </row>
     <row r="621" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B621" s="3" t="n">
         <v>41448</v>
       </c>
       <c r="C621" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D621" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D621" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="E621" s="2" t="n">
         <v>90</v>
@@ -18129,13 +18126,13 @@
     </row>
     <row r="622" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B622" s="3" t="n">
         <v>41426</v>
       </c>
       <c r="C622" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D622" s="4" t="s">
         <v>38</v>
@@ -18158,13 +18155,13 @@
     </row>
     <row r="623" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B623" s="3" t="n">
         <v>41420</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D623" s="4" t="s">
         <v>42</v>
@@ -18187,13 +18184,13 @@
     </row>
     <row r="624" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B624" s="3" t="n">
         <v>41413</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D624" s="4" t="s">
         <v>12</v>
@@ -18216,13 +18213,13 @@
     </row>
     <row r="625" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B625" s="3" t="n">
         <v>41402</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D625" s="4" t="s">
         <v>22</v>
@@ -18245,13 +18242,13 @@
     </row>
     <row r="626" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B626" s="3" t="n">
         <v>41398</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D626" s="4" t="s">
         <v>21</v>
@@ -18274,13 +18271,13 @@
     </row>
     <row r="627" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B627" s="3" t="n">
         <v>41391</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D627" s="4" t="s">
         <v>30</v>
@@ -18303,13 +18300,13 @@
     </row>
     <row r="628" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B628" s="3" t="n">
         <v>41384</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D628" s="4" t="s">
         <v>24</v>
@@ -18332,13 +18329,13 @@
     </row>
     <row r="629" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B629" s="3" t="n">
         <v>41381</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D629" s="4" t="s">
         <v>51</v>
@@ -18361,13 +18358,13 @@
     </row>
     <row r="630" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B630" s="3" t="n">
         <v>41377</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D630" s="4" t="s">
         <v>20</v>
@@ -18390,13 +18387,13 @@
     </row>
     <row r="631" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B631" s="3" t="n">
         <v>41371</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D631" s="4" t="s">
         <v>58</v>
@@ -18420,13 +18417,13 @@
     </row>
     <row r="632" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B632" s="3" t="n">
         <v>41363</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D632" s="4" t="s">
         <v>22</v>
@@ -18450,13 +18447,13 @@
     </row>
     <row r="633" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B633" s="3" t="n">
         <v>41349</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D633" s="4" t="s">
         <v>50</v>
@@ -18479,13 +18476,13 @@
     </row>
     <row r="634" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B634" s="3" t="n">
         <v>41343</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D634" s="4" t="s">
         <v>47</v>
@@ -18508,13 +18505,13 @@
     </row>
     <row r="635" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B635" s="3" t="n">
         <v>41336</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D635" s="4" t="s">
         <v>35</v>
@@ -18537,16 +18534,16 @@
     </row>
     <row r="636" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B636" s="3" t="n">
         <v>41972</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D636" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E636" s="2" t="n">
         <v>90</v>
@@ -18566,13 +18563,13 @@
     </row>
     <row r="637" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B637" s="3" t="n">
         <v>41966</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D637" s="4" t="s">
         <v>38</v>
@@ -18595,13 +18592,13 @@
     </row>
     <row r="638" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B638" s="3" t="n">
         <v>41951</v>
       </c>
       <c r="C638" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D638" s="4" t="s">
         <v>22</v>
@@ -18624,13 +18621,13 @@
     </row>
     <row r="639" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B639" s="3" t="n">
         <v>41945</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D639" s="4" t="s">
         <v>19</v>
@@ -18653,13 +18650,13 @@
     </row>
     <row r="640" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B640" s="3" t="n">
         <v>41942</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D640" s="4" t="s">
         <v>22</v>
@@ -18682,13 +18679,13 @@
     </row>
     <row r="641" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B641" s="3" t="n">
         <v>41931</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D641" s="4" t="s">
         <v>31</v>
@@ -18711,13 +18708,13 @@
     </row>
     <row r="642" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B642" s="3" t="n">
         <v>41923</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D642" s="4" t="s">
         <v>33</v>
@@ -18740,13 +18737,13 @@
     </row>
     <row r="643" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B643" s="3" t="n">
         <v>41916</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D643" s="4" t="s">
         <v>12</v>
@@ -18769,16 +18766,16 @@
     </row>
     <row r="644" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B644" s="3" t="n">
         <v>41910</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D644" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E644" s="2" t="n">
         <v>90</v>
@@ -18798,13 +18795,13 @@
     </row>
     <row r="645" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B645" s="3" t="n">
         <v>41902</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D645" s="4" t="s">
         <v>24</v>
@@ -18827,13 +18824,13 @@
     </row>
     <row r="646" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B646" s="3" t="n">
         <v>41895</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D646" s="4" t="s">
         <v>42</v>
@@ -18856,13 +18853,13 @@
     </row>
     <row r="647" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B647" s="3" t="n">
         <v>41892</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D647" s="4" t="s">
         <v>12</v>
@@ -18885,13 +18882,13 @@
     </row>
     <row r="648" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B648" s="3" t="n">
         <v>41888</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D648" s="4" t="s">
         <v>22</v>
@@ -18914,13 +18911,13 @@
     </row>
     <row r="649" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B649" s="3" t="n">
         <v>41882</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D649" s="4" t="s">
         <v>43</v>
@@ -18943,13 +18940,13 @@
     </row>
     <row r="650" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B650" s="3" t="n">
         <v>41874</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D650" s="4" t="s">
         <v>53</v>
@@ -18972,13 +18969,13 @@
     </row>
     <row r="651" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B651" s="3" t="n">
         <v>41861</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D651" s="4" t="s">
         <v>37</v>
@@ -19001,13 +18998,13 @@
     </row>
     <row r="652" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B652" s="3" t="n">
         <v>41857</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D652" s="4" t="s">
         <v>22</v>
@@ -19030,13 +19027,13 @@
     </row>
     <row r="653" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B653" s="3" t="n">
         <v>41853</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D653" s="4" t="s">
         <v>22</v>
@@ -19059,13 +19056,13 @@
     </row>
     <row r="654" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B654" s="3" t="n">
         <v>41850</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D654" s="4" t="s">
         <v>26</v>
@@ -19088,13 +19085,13 @@
     </row>
     <row r="655" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B655" s="3" t="n">
         <v>41839</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D655" s="4" t="s">
         <v>26</v>
@@ -19117,13 +19114,13 @@
     </row>
     <row r="656" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B656" s="3" t="n">
         <v>41836</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D656" s="4" t="s">
         <v>58</v>
@@ -19146,13 +19143,13 @@
     </row>
     <row r="657" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B657" s="3" t="n">
         <v>41832</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D657" s="4" t="s">
         <v>24</v>
@@ -19175,13 +19172,13 @@
     </row>
     <row r="658" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B658" s="3" t="n">
         <v>41824</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D658" s="4" t="s">
         <v>42</v>
@@ -19204,13 +19201,13 @@
     </row>
     <row r="659" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B659" s="3" t="n">
         <v>41817</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D659" s="4" t="s">
         <v>42</v>
@@ -19233,13 +19230,13 @@
     </row>
     <row r="660" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B660" s="3" t="n">
         <v>41786</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D660" s="4" t="s">
         <v>26</v>
@@ -19262,13 +19259,13 @@
     </row>
     <row r="661" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B661" s="3" t="n">
         <v>41783</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D661" s="4" t="s">
         <v>38</v>
@@ -19291,13 +19288,13 @@
     </row>
     <row r="662" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B662" s="3" t="n">
         <v>41776</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D662" s="4" t="s">
         <v>43</v>
@@ -19320,16 +19317,16 @@
     </row>
     <row r="663" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B663" s="3" t="n">
         <v>41769</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D663" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E663" s="2" t="n">
         <v>90</v>
@@ -19349,13 +19346,13 @@
     </row>
     <row r="664" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B664" s="3" t="n">
         <v>41763</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D664" s="4" t="s">
         <v>21</v>
@@ -19378,13 +19375,13 @@
     </row>
     <row r="665" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B665" s="3" t="n">
         <v>41755</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D665" s="4" t="s">
         <v>26</v>
@@ -19407,13 +19404,13 @@
     </row>
     <row r="666" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B666" s="3" t="n">
         <v>41752</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D666" s="4" t="s">
         <v>13</v>
@@ -19436,13 +19433,13 @@
     </row>
     <row r="667" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B667" s="3" t="n">
         <v>41745</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D667" s="4" t="s">
         <v>22</v>
@@ -19465,13 +19462,13 @@
     </row>
     <row r="668" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B668" s="3" t="n">
         <v>41741</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D668" s="4" t="s">
         <v>37</v>
@@ -19494,13 +19491,13 @@
     </row>
     <row r="669" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B669" s="3" t="n">
         <v>41728</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D669" s="4" t="s">
         <v>26</v>
@@ -19523,13 +19520,13 @@
     </row>
     <row r="670" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B670" s="3" t="n">
         <v>41721</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D670" s="4" t="s">
         <v>26</v>
@@ -19552,13 +19549,13 @@
     </row>
     <row r="671" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B671" s="3" t="n">
         <v>41713</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D671" s="4" t="s">
         <v>26</v>
@@ -20270,7 +20267,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="E341:E342 E359 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20296,7 +20293,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="E341:E342 E359 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
